--- a/Catalog DKS Sognare - Product.xlsx
+++ b/Catalog DKS Sognare - Product.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/09 - Update automation/Datasets/Catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_A12A595C737454949AB192A73907B79A858CAD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F2533D9-1367-4484-940D-0AFE2E16AA4E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_A12A595C737454949AB192A73907B79A858CAD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEEC0BB3-5D96-4869-ACB9-257E60034407}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>NO APLICA</t>
   </si>
@@ -199,6 +199,39 @@
   </si>
   <si>
     <t>KIMOTION</t>
+  </si>
+  <si>
+    <t>BACTICURE</t>
+  </si>
+  <si>
+    <t>BACTICURE 1 FRASCO</t>
+  </si>
+  <si>
+    <t>PULSERA</t>
+  </si>
+  <si>
+    <t>PULSERA FORTUNARA</t>
+  </si>
+  <si>
+    <t>SOGNARE COLCHON BIOFLEX KING</t>
+  </si>
+  <si>
+    <t>SOGNARE COLCHON BIOFLEX INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>SOGNARE COLCHON BIOFLEX MATRIMONIAL</t>
+  </si>
+  <si>
+    <t>SOGNARE COLCHON BIOFLEX MATRIMONIAL WEB</t>
+  </si>
+  <si>
+    <t>SOGNARE COLCHON BIOFLEX QUEEN</t>
+  </si>
+  <si>
+    <t>SOGNARE COLCHON BIOFLEX KING WEB</t>
+  </si>
+  <si>
+    <t>SOGNARE COLCHON BIOFLEX QUEEN WEB</t>
   </si>
 </sst>
 </file>
@@ -636,10 +669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,6 +1081,94 @@
         <v>57</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
     <sortCondition ref="B2"/>

--- a/Catalog DKS Sognare - Product.xlsx
+++ b/Catalog DKS Sognare - Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/09 - Update automation/Datasets/Catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_A12A595C737454949AB192A73907B79A858CAD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEEC0BB3-5D96-4869-ACB9-257E60034407}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_A12A595C737454949AB192A73907B79A858CAD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB062E67-3E28-4E65-9FD1-DE66CC1E0E5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,8 +671,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,8 +821,8 @@
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
